--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Level_Name</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>Cost_Level_Train_Efficient</t>
+  </si>
+  <si>
+    <t>Cost_Level_Mercenary_Engine_Driver</t>
+  </si>
+  <si>
+    <t>Cost_Level_Mercenary_Engineer</t>
+  </si>
+  <si>
+    <t>Cost_Level_Mercenary_Long_Ranged</t>
+  </si>
+  <si>
+    <t>Cost_Level_Mercenary_Short_Ranged</t>
+  </si>
+  <si>
+    <t>Cost_Level_Mercenary_Medic</t>
   </si>
   <si>
     <t>HP</t>
@@ -211,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -227,6 +242,9 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -651,286 +669,286 @@
       <c r="J1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>15</v>
+      <c r="K1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>0.0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>2000.0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>3000.0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>4000.0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>5000.0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <v>6000.0</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="9">
         <v>7000.0</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="9">
         <v>8000.0</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="9">
         <v>9000.0</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="9">
         <v>10000.0</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="9">
         <v>20000.0</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="9">
         <v>30000.0</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="9">
         <v>40000.0</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="9">
         <v>50000.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>1.0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1001.0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>2001.0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>3001.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>4001.0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>5001.0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>6001.0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>7001.0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <v>8001.0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="9">
         <v>9001.0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="9">
         <v>10001.0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="9">
         <v>20001.0</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="9">
         <v>30001.0</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="9">
         <v>40001.0</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="9">
         <v>50001.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>2.0</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1002.0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>2002.0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>3002.0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>4002.0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <v>5002.0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>6002.0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>7002.0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <v>8002.0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="9">
         <v>9002.0</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <v>10002.0</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="9">
         <v>20002.0</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="9">
         <v>30002.0</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="9">
         <v>40002.0</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="9">
         <v>50002.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>3.0</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>1003.0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>2003.0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>3003.0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>4003.0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>5003.0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>6003.0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <v>7003.0</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="9">
         <v>8003.0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="9">
         <v>9003.0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <v>10003.0</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="9">
         <v>20003.0</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="9">
         <v>30003.0</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="9">
         <v>40003.0</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="9">
         <v>50003.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>4.0</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1004.0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>2004.0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>3004.0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>4004.0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <v>5004.0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>6004.0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>7004.0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>8004.0</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>9004.0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>10004.0</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="9">
         <v>20004.0</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>30004.0</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="9">
         <v>40004.0</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="9">
         <v>50004.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>5.0</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>1005.0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>2005.0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>3005.0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>4005.0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>5005.0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>6005.0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>7005.0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>8005.0</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>9005.0</v>
       </c>
       <c r="K7" s="1"/>
@@ -940,34 +958,34 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>6.0</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>1006.0</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>2006.0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>3006.0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>4006.0</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <v>5006.0</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <v>6006.0</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>7006.0</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>8006.0</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="9">
         <v>9006.0</v>
       </c>
       <c r="K8" s="1"/>
@@ -977,34 +995,34 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>7.0</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>1007.0</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>2007.0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>3007.0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>4007.0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>5007.0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>6007.0</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <v>7007.0</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <v>8007.0</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="9">
         <v>9007.0</v>
       </c>
       <c r="K9" s="1"/>
@@ -1014,34 +1032,34 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>8.0</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>1008.0</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>2008.0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>3008.0</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>4008.0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <v>5008.0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>6008.0</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>7008.0</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>8008.0</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="9">
         <v>9008.0</v>
       </c>
       <c r="K10" s="1"/>
@@ -1051,34 +1069,34 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>9.0</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>1009.0</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>2009.0</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>3009.0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>4009.0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <v>5009.0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>6009.0</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <v>7009.0</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="9">
         <v>8009.0</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="9">
         <v>9009.0</v>
       </c>
       <c r="K11" s="1"/>
@@ -1088,34 +1106,34 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>10.0</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>1010.0</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>2010.0</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>3010.0</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>4010.0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>5010.0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>6010.0</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>7010.0</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>8010.0</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="9">
         <v>9010.0</v>
       </c>
       <c r="K12" s="1"/>
@@ -1125,34 +1143,34 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>11.0</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>1011.0</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>2011.0</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>3011.0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>4011.0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <v>5011.0</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <v>6011.0</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="9">
         <v>7011.0</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="9">
         <v>8011.0</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="9">
         <v>9011.0</v>
       </c>
       <c r="K13" s="1"/>
@@ -1162,34 +1180,34 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>12.0</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>1012.0</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>2012.0</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>3012.0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>4012.0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <v>5012.0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <v>6012.0</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>7012.0</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <v>8012.0</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="9">
         <v>9012.0</v>
       </c>
       <c r="K14" s="1"/>
@@ -1199,34 +1217,34 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>13.0</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>1013.0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>2013.0</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>3013.0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <v>4013.0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="9">
         <v>5013.0</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <v>6013.0</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="9">
         <v>7013.0</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="9">
         <v>8013.0</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="9">
         <v>9013.0</v>
       </c>
       <c r="K15" s="1"/>
@@ -1236,34 +1254,34 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>14.0</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>1014.0</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>2014.0</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>3014.0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>4014.0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>5014.0</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <v>6014.0</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
         <v>7014.0</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="9">
         <v>8014.0</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="9">
         <v>9014.0</v>
       </c>
       <c r="K16" s="1"/>
@@ -1273,34 +1291,34 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>15.0</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>1015.0</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>2015.0</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>3015.0</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <v>4015.0</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="9">
         <v>5015.0</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="9">
         <v>6015.0</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="9">
         <v>7015.0</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="9">
         <v>8015.0</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="9">
         <v>9015.0</v>
       </c>
       <c r="K17" s="1"/>
@@ -1310,22 +1328,22 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>16.0</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>1016.0</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>2016.0</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>3016.0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>4016.0</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <v>5016.0</v>
       </c>
       <c r="G18" s="1"/>
@@ -1339,22 +1357,22 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>17.0</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>1017.0</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>2017.0</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>3017.0</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="9">
         <v>4017.0</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="9">
         <v>5017.0</v>
       </c>
       <c r="G19" s="1"/>
@@ -1368,22 +1386,22 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>18.0</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>1018.0</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>2018.0</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>3018.0</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="9">
         <v>4018.0</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="9">
         <v>5018.0</v>
       </c>
       <c r="G20" s="1"/>
@@ -1397,22 +1415,22 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>19.0</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>1019.0</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>2019.0</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>3019.0</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="9">
         <v>4019.0</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <v>5019.0</v>
       </c>
       <c r="G21" s="1"/>
@@ -1426,22 +1444,22 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>20.0</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>1020.0</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>2020.0</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>3020.0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="9">
         <v>4020.0</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <v>5020.0</v>
       </c>
       <c r="G22" s="1"/>
@@ -1455,22 +1473,22 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="8">
+      <c r="A23" s="9">
         <v>21.0</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>1021.0</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>2021.0</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <v>3021.0</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <v>4021.0</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="9">
         <v>5021.0</v>
       </c>
       <c r="G23" s="1"/>
@@ -1484,22 +1502,22 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <v>22.0</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>1022.0</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>2022.0</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <v>3022.0</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <v>4022.0</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <v>5022.0</v>
       </c>
       <c r="G24" s="1"/>
@@ -1513,22 +1531,22 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>23.0</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>1023.0</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>2023.0</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <v>3023.0</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="9">
         <v>4023.0</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <v>5023.0</v>
       </c>
       <c r="G25" s="1"/>
@@ -1542,22 +1560,22 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <v>24.0</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>1024.0</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>2024.0</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <v>3024.0</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="9">
         <v>4024.0</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="9">
         <v>5024.0</v>
       </c>
       <c r="G26" s="1"/>
@@ -1571,22 +1589,22 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>25.0</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>1025.0</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>2025.0</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>3025.0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="9">
         <v>4025.0</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <v>5025.0</v>
       </c>
       <c r="G27" s="1"/>
@@ -1600,22 +1618,22 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>26.0</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <v>1026.0</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>2026.0</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <v>3026.0</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="9">
         <v>4026.0</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <v>5026.0</v>
       </c>
       <c r="G28" s="1"/>
@@ -1629,22 +1647,22 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>27.0</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
         <v>1027.0</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>2027.0</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="9">
         <v>3027.0</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="9">
         <v>4027.0</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="9">
         <v>5027.0</v>
       </c>
       <c r="G29" s="1"/>
@@ -1658,22 +1676,22 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>28.0</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="9">
         <v>1028.0</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>2028.0</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <v>3028.0</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="9">
         <v>4028.0</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="9">
         <v>5028.0</v>
       </c>
       <c r="G30" s="1"/>
@@ -1687,22 +1705,22 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>29.0</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="9">
         <v>1029.0</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>2029.0</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="9">
         <v>3029.0</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="9">
         <v>4029.0</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="9">
         <v>5029.0</v>
       </c>
       <c r="G31" s="1"/>
@@ -1716,22 +1734,22 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <v>30.0</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="9">
         <v>1030.0</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>2030.0</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>3030.0</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <v>4030.0</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <v>5030.0</v>
       </c>
       <c r="G32" s="1"/>
@@ -1768,298 +1786,298 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="G1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>0.0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>100.0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>0.0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>5.0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>3.0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>10.0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>50.0</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="12">
         <v>5.0</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="12">
         <v>4.0</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="12">
         <v>10.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>1.0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>1200.0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>110.0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>0.0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>5.0</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>2.0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>12.0</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>50.0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="12">
         <v>10.0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="12">
         <v>6.0</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="12">
         <v>12.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>2.0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>1500.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>120.0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>0.0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>7.0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>1.0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>14.0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>50.0</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="12">
         <v>15.0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="12">
         <v>10.0</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="12">
         <v>15.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>3.0</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>2000.0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>150.0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>0.0</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>10.0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>1.0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>15.0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>30.0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="12">
         <v>20.0</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <v>14.0</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>4.0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11">
         <v>0.0</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>5.0</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11">
         <v>0.0</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>6.0</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11">
         <v>0.0</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>7.0</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11">
         <v>0.0</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>8.0</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11">
         <v>0.0</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>9.0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11">
         <v>0.0</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>10.0</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="11">
         <v>0.0</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2080,284 +2098,284 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="D1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>38</v>
+      <c r="I1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>0.0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>100.0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>1.0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>5.0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>3.0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>10.0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>7.0</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="12">
         <v>2.0</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="12">
         <v>30.0</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="12">
         <v>70.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>1.0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>1200.0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>110.0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>1.0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>5.0</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>2.0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>12.0</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>5.0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="12">
         <v>2.0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="12">
         <v>50.0</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="12">
         <v>70.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>2.0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>1500.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>120.0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>2.0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>7.0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>1.0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>14.0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>4.0</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="12">
         <v>1.0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="12">
         <v>70.0</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="12">
         <v>75.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>3.0</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>2000.0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>150.0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>3.0</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>10.0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>1.0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>15.0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>3.0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="12">
         <v>1.0</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <v>100.0</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>85.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>4.0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>5.0</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>6.0</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>7.0</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>8.0</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>9.0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>10.0</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2375,284 +2393,324 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>41</v>
+      <c r="D1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>0.0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>100.0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>1.0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>5.0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>3.0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>10.0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>10.0</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="12">
         <v>10.0</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="12">
         <v>6.0</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="12">
         <v>0.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>1.0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>1200.0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>110.0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>1.0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>5.0</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>2.0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>12.0</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>9.0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="12">
         <v>12.0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="12">
         <v>5.0</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="12">
         <v>0.1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>2.0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>1500.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>120.0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>2.0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>7.0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>1.0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>14.0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>8.0</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="12">
         <v>15.0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="12">
         <v>4.0</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="12">
         <v>0.12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>3.0</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>2000.0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>150.0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>3.0</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>10.0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>1.0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>15.0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>6.0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="12">
         <v>18.0</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <v>3.0</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>0.15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>4.0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="11">
+        <v>2200.0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>160.0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>5.0</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="B7" s="11">
+        <v>2300.0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>170.0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>6.0</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>7.0</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>8.0</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>9.0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>10.0</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2673,262 +2731,300 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>40</v>
+      <c r="D1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>0.0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>100.0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>1.0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>5.0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>3.0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>10.0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>10.0</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="12">
         <v>10.0</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="12">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>1.0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>1200.0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>110.0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>1.0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>5.0</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>2.0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>12.0</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>8.0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="12">
         <v>12.0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="12">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>2.0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>1500.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>120.0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>2.0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>7.0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>1.0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>14.0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>6.0</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="12">
         <v>13.0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="12">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>3.0</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>2000.0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>150.0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>3.0</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>10.0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>1.0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>15.0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>3.0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="12">
         <v>18.0</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>4.0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="11">
+        <v>2200.0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>160.0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="K6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>5.0</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="B7" s="11">
+        <v>2300.0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>170.0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="K7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>6.0</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>7.0</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>8.0</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>9.0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>10.0</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2952,306 +3048,306 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>45</v>
+      <c r="D1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>0.0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>100.0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>1.0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>5.0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>3.0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>10.0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>10.0</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="12">
         <v>50.0</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="12">
         <v>40.0</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="12">
         <v>10.0</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="12">
         <v>50.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>1.0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>1200.0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>110.0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>1.0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>5.0</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>2.0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>12.0</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>8.0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="12">
         <v>60.0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="12">
         <v>45.0</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="12">
         <v>20.0</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="12">
         <v>55.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>2.0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>1500.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>120.0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>2.0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>7.0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>1.0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>14.0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>6.0</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="12">
         <v>70.0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="12">
         <v>60.0</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="12">
         <v>30.0</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="12">
         <v>60.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>3.0</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>2000.0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>150.0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>3.0</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>10.0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>1.0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>15.0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>3.0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="12">
         <v>100.0</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <v>70.0</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>70.0</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <v>70.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>4.0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>5.0</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>6.0</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>7.0</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>8.0</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>9.0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>10.0</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -5,11 +5,12 @@
   <sheets>
     <sheet state="visible" name="Information_Level" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Information_LevelCost" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Level_Mercenary_Engine_Driver" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Level_Mercenary_Engineer" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Level_Mercenary_Long_Ranged" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Level_Mercenary_Short_Ranged" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Level_Mercenary_Medic" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Level_Max_EngineTier" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Level_Mercenary_Engine_Driver" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Level_Mercenary_Engineer" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Level_Mercenary_Long_Ranged" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Level_Mercenary_Short_Ranged" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Level_Mercenary_Medic" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>Level_Name</t>
   </si>
@@ -25,6 +26,9 @@
     <t>Max_Level</t>
   </si>
   <si>
+    <t>Level_Information</t>
+  </si>
+  <si>
     <t>Level_Player_Atk</t>
   </si>
   <si>
@@ -110,6 +114,12 @@
   </si>
   <si>
     <t>Cost_Level_Mercenary_Medic</t>
+  </si>
+  <si>
+    <t>Max_Mercenary</t>
+  </si>
+  <si>
+    <t>Max_Train</t>
   </si>
   <si>
     <t>HP</t>
@@ -231,6 +241,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -248,9 +261,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -293,6 +303,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -501,6 +515,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.25"/>
+    <col customWidth="1" min="3" max="3" width="14.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -510,116 +525,119 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
         <v>30.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
         <v>30.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>30.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
         <v>30.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
         <v>30.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
         <v>15.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
         <v>15.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
         <v>15.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8">
         <v>5.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8">
         <v>3.0</v>
       </c>
     </row>
@@ -640,315 +658,315 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="O1" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>0.0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>2000.0</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>3000.0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>4000.0</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>5000.0</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>6000.0</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <v>7000.0</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>8000.0</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>9000.0</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="10">
         <v>10000.0</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="10">
         <v>20000.0</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <v>30000.0</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="10">
         <v>40000.0</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="10">
         <v>50000.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>1.0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>1001.0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>2001.0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>3001.0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>4001.0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>5001.0</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>6001.0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <v>7001.0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="10">
         <v>8001.0</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="10">
         <v>9001.0</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="10">
         <v>10001.0</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="10">
         <v>20001.0</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="10">
         <v>30001.0</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="10">
         <v>40001.0</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="10">
         <v>50001.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>2.0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>1002.0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>2002.0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>3002.0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>4002.0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>5002.0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>6002.0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>7002.0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="10">
         <v>8002.0</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="10">
         <v>9002.0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="10">
         <v>10002.0</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="10">
         <v>20002.0</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="10">
         <v>30002.0</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="10">
         <v>40002.0</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="10">
         <v>50002.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>3.0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>1003.0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>2003.0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>3003.0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>4003.0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>5003.0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>6003.0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
         <v>7003.0</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="10">
         <v>8003.0</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>9003.0</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="10">
         <v>10003.0</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="10">
         <v>20003.0</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="10">
         <v>30003.0</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="10">
         <v>40003.0</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="10">
         <v>50003.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>4.0</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>1004.0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>2004.0</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>3004.0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>4004.0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>5004.0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>6004.0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <v>7004.0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="10">
         <v>8004.0</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <v>9004.0</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="10">
         <v>10004.0</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="10">
         <v>20004.0</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="10">
         <v>30004.0</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="10">
         <v>40004.0</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="10">
         <v>50004.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>5.0</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>1005.0</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>2005.0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>3005.0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>4005.0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>5005.0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>6005.0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <v>7005.0</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="10">
         <v>8005.0</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <v>9005.0</v>
       </c>
       <c r="K7" s="1"/>
@@ -958,34 +976,34 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>6.0</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>1006.0</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>2006.0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>3006.0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>4006.0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>5006.0</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>6006.0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="10">
         <v>7006.0</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="10">
         <v>8006.0</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <v>9006.0</v>
       </c>
       <c r="K8" s="1"/>
@@ -995,34 +1013,34 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>7.0</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>1007.0</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>2007.0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>3007.0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>4007.0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>5007.0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>6007.0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="10">
         <v>7007.0</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="10">
         <v>8007.0</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <v>9007.0</v>
       </c>
       <c r="K9" s="1"/>
@@ -1032,34 +1050,34 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>8.0</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>1008.0</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>2008.0</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>3008.0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>4008.0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>5008.0</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>6008.0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
         <v>7008.0</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <v>8008.0</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <v>9008.0</v>
       </c>
       <c r="K10" s="1"/>
@@ -1069,34 +1087,34 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>9.0</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>1009.0</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>2009.0</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>3009.0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <v>4009.0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>5009.0</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>6009.0</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="10">
         <v>7009.0</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="10">
         <v>8009.0</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <v>9009.0</v>
       </c>
       <c r="K11" s="1"/>
@@ -1106,34 +1124,34 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>10.0</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>1010.0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>2010.0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>3010.0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="10">
         <v>4010.0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>5010.0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>6010.0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="10">
         <v>7010.0</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="10">
         <v>8010.0</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="10">
         <v>9010.0</v>
       </c>
       <c r="K12" s="1"/>
@@ -1143,34 +1161,34 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>11.0</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>1011.0</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>2011.0</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>3011.0</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>4011.0</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>5011.0</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>6011.0</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="10">
         <v>7011.0</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="10">
         <v>8011.0</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="10">
         <v>9011.0</v>
       </c>
       <c r="K13" s="1"/>
@@ -1180,34 +1198,34 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>12.0</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>1012.0</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>2012.0</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>3012.0</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
         <v>4012.0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>5012.0</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>6012.0</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="10">
         <v>7012.0</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10">
         <v>8012.0</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10">
         <v>9012.0</v>
       </c>
       <c r="K14" s="1"/>
@@ -1217,34 +1235,34 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>13.0</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>1013.0</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <v>2013.0</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>3013.0</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
         <v>4013.0</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>5013.0</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>6013.0</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="10">
         <v>7013.0</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="10">
         <v>8013.0</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="10">
         <v>9013.0</v>
       </c>
       <c r="K15" s="1"/>
@@ -1254,34 +1272,34 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>14.0</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>1014.0</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>2014.0</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>3014.0</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="10">
         <v>4014.0</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>5014.0</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>6014.0</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="10">
         <v>7014.0</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="10">
         <v>8014.0</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="10">
         <v>9014.0</v>
       </c>
       <c r="K16" s="1"/>
@@ -1291,34 +1309,34 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>15.0</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>1015.0</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>2015.0</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>3015.0</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="10">
         <v>4015.0</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>5015.0</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>6015.0</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="10">
         <v>7015.0</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="10">
         <v>8015.0</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="10">
         <v>9015.0</v>
       </c>
       <c r="K17" s="1"/>
@@ -1328,22 +1346,22 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>16.0</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>1016.0</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>2016.0</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>3016.0</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="10">
         <v>4016.0</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>5016.0</v>
       </c>
       <c r="G18" s="1"/>
@@ -1357,22 +1375,22 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>17.0</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>1017.0</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>2017.0</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>3017.0</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="10">
         <v>4017.0</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>5017.0</v>
       </c>
       <c r="G19" s="1"/>
@@ -1386,22 +1404,22 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>18.0</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>1018.0</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="10">
         <v>2018.0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>3018.0</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="10">
         <v>4018.0</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>5018.0</v>
       </c>
       <c r="G20" s="1"/>
@@ -1415,22 +1433,22 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>19.0</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>1019.0</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="10">
         <v>2019.0</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>3019.0</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="10">
         <v>4019.0</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>5019.0</v>
       </c>
       <c r="G21" s="1"/>
@@ -1444,22 +1462,22 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <v>20.0</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>1020.0</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>2020.0</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="10">
         <v>3020.0</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="10">
         <v>4020.0</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>5020.0</v>
       </c>
       <c r="G22" s="1"/>
@@ -1473,22 +1491,22 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="9">
+      <c r="A23" s="10">
         <v>21.0</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>1021.0</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="10">
         <v>2021.0</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="10">
         <v>3021.0</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="10">
         <v>4021.0</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>5021.0</v>
       </c>
       <c r="G23" s="1"/>
@@ -1502,22 +1520,22 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="9">
+      <c r="A24" s="10">
         <v>22.0</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>1022.0</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="10">
         <v>2022.0</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="10">
         <v>3022.0</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="10">
         <v>4022.0</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>5022.0</v>
       </c>
       <c r="G24" s="1"/>
@@ -1531,22 +1549,22 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <v>23.0</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>1023.0</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="10">
         <v>2023.0</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="10">
         <v>3023.0</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="10">
         <v>4023.0</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>5023.0</v>
       </c>
       <c r="G25" s="1"/>
@@ -1560,22 +1578,22 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="9">
+      <c r="A26" s="10">
         <v>24.0</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>1024.0</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="10">
         <v>2024.0</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="10">
         <v>3024.0</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="10">
         <v>4024.0</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>5024.0</v>
       </c>
       <c r="G26" s="1"/>
@@ -1589,22 +1607,22 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <v>25.0</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="10">
         <v>1025.0</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="10">
         <v>2025.0</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="10">
         <v>3025.0</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="10">
         <v>4025.0</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>5025.0</v>
       </c>
       <c r="G27" s="1"/>
@@ -1618,22 +1636,22 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="9">
+      <c r="A28" s="10">
         <v>26.0</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="10">
         <v>1026.0</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="10">
         <v>2026.0</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="10">
         <v>3026.0</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="10">
         <v>4026.0</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="10">
         <v>5026.0</v>
       </c>
       <c r="G28" s="1"/>
@@ -1647,22 +1665,22 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <v>27.0</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>1027.0</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="10">
         <v>2027.0</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="10">
         <v>3027.0</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="10">
         <v>4027.0</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="10">
         <v>5027.0</v>
       </c>
       <c r="G29" s="1"/>
@@ -1676,22 +1694,22 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <v>28.0</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <v>1028.0</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="10">
         <v>2028.0</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="10">
         <v>3028.0</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="10">
         <v>4028.0</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="10">
         <v>5028.0</v>
       </c>
       <c r="G30" s="1"/>
@@ -1705,22 +1723,22 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <v>29.0</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <v>1029.0</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="10">
         <v>2029.0</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="10">
         <v>3029.0</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="10">
         <v>4029.0</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="10">
         <v>5029.0</v>
       </c>
       <c r="G31" s="1"/>
@@ -1734,22 +1752,22 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="9">
+      <c r="A32" s="10">
         <v>30.0</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="10">
         <v>1030.0</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="10">
         <v>2030.0</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="10">
         <v>3030.0</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="10">
         <v>4030.0</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="10">
         <v>5030.0</v>
       </c>
       <c r="G32" s="1"/>
@@ -1776,308 +1794,193 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="15.25"/>
-    <col customWidth="1" min="3" max="3" width="13.38"/>
-    <col customWidth="1" min="4" max="4" width="13.0"/>
-    <col customWidth="1" min="9" max="9" width="15.25"/>
-    <col customWidth="1" min="10" max="10" width="13.75"/>
-    <col customWidth="1" min="11" max="11" width="13.0"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="2">
         <v>0.0</v>
       </c>
-      <c r="B2" s="11">
-        <v>1000.0</v>
-      </c>
-      <c r="C2" s="11">
-        <v>100.0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="B2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="F2" s="11">
+      <c r="B7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="2">
         <v>3.0</v>
       </c>
-      <c r="G2" s="11">
+      <c r="C8" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="H2" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="I2" s="12">
+      <c r="B12" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C12" s="2">
         <v>5.0</v>
       </c>
-      <c r="J2" s="12">
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="2">
         <v>4.0</v>
       </c>
-      <c r="K2" s="12">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1200.0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>110.0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="C13" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="2">
         <v>5.0</v>
       </c>
-      <c r="F3" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="C15" s="2">
         <v>6.0</v>
       </c>
-      <c r="K3" s="12">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1500.0</v>
-      </c>
-      <c r="C4" s="11">
-        <v>120.0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>7.0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="11">
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
         <v>14.0</v>
       </c>
-      <c r="H4" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="B16" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
         <v>15.0</v>
       </c>
-      <c r="J4" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2000.0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>150.0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>15.0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>30.0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="10">
+      <c r="B17" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10">
+      <c r="C17" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2094,33 +1997,39 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="11" max="11" width="17.25"/>
+    <col customWidth="1" min="2" max="2" width="15.25"/>
+    <col customWidth="1" min="3" max="3" width="13.38"/>
+    <col customWidth="1" min="4" max="4" width="13.0"/>
+    <col customWidth="1" min="5" max="5" width="13.5"/>
+    <col customWidth="1" min="9" max="9" width="15.25"/>
+    <col customWidth="1" min="10" max="10" width="13.75"/>
+    <col customWidth="1" min="11" max="11" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
+      <c r="A1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>41</v>
@@ -2133,7 +2042,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="2">
         <v>0.0</v>
       </c>
       <c r="B2" s="11">
@@ -2143,7 +2052,7 @@
         <v>100.0</v>
       </c>
       <c r="D2" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="11">
         <v>5.0</v>
@@ -2155,20 +2064,20 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="11">
-        <v>7.0</v>
+        <v>50.0</v>
       </c>
       <c r="I2" s="12">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="J2" s="12">
-        <v>30.0</v>
+        <v>4.0</v>
       </c>
       <c r="K2" s="12">
-        <v>70.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10">
+      <c r="A3" s="2">
         <v>1.0</v>
       </c>
       <c r="B3" s="11">
@@ -2178,7 +2087,7 @@
         <v>110.0</v>
       </c>
       <c r="D3" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" s="11">
         <v>5.0</v>
@@ -2190,20 +2099,20 @@
         <v>12.0</v>
       </c>
       <c r="H3" s="11">
-        <v>5.0</v>
+        <v>50.0</v>
       </c>
       <c r="I3" s="12">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="J3" s="12">
-        <v>50.0</v>
+        <v>6.0</v>
       </c>
       <c r="K3" s="12">
-        <v>70.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10">
+      <c r="A4" s="2">
         <v>2.0</v>
       </c>
       <c r="B4" s="11">
@@ -2213,7 +2122,7 @@
         <v>120.0</v>
       </c>
       <c r="D4" s="11">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="11">
         <v>7.0</v>
@@ -2225,20 +2134,20 @@
         <v>14.0</v>
       </c>
       <c r="H4" s="11">
-        <v>4.0</v>
+        <v>50.0</v>
       </c>
       <c r="I4" s="12">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="J4" s="12">
-        <v>70.0</v>
+        <v>10.0</v>
       </c>
       <c r="K4" s="12">
-        <v>75.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
         <v>3.0</v>
       </c>
       <c r="B5" s="11">
@@ -2248,7 +2157,7 @@
         <v>150.0</v>
       </c>
       <c r="D5" s="11">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" s="11">
         <v>10.0</v>
@@ -2260,25 +2169,27 @@
         <v>15.0</v>
       </c>
       <c r="H5" s="11">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
       <c r="I5" s="12">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="J5" s="12">
-        <v>100.0</v>
+        <v>14.0</v>
       </c>
       <c r="K5" s="12">
-        <v>85.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="2">
         <v>4.0</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11">
+        <v>0.0</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -2288,12 +2199,14 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="10">
+      <c r="A7" s="2">
         <v>5.0</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="11">
+        <v>0.0</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -2303,12 +2216,14 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="2">
         <v>6.0</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11">
+        <v>0.0</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -2318,12 +2233,14 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="10">
+      <c r="A9" s="2">
         <v>7.0</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="11">
+        <v>0.0</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -2333,12 +2250,14 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="2">
         <v>8.0</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="11">
+        <v>0.0</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2348,12 +2267,14 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="10">
+      <c r="A11" s="2">
         <v>9.0</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="11">
+        <v>0.0</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2363,12 +2284,14 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="10">
+      <c r="A12" s="2">
         <v>10.0</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="11">
+        <v>0.0</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -2391,31 +2314,34 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="11" max="11" width="17.25"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
+      <c r="A1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>44</v>
@@ -2428,7 +2354,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="2">
         <v>0.0</v>
       </c>
       <c r="B2" s="11">
@@ -2450,20 +2376,20 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="11">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="I2" s="12">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="J2" s="12">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="K2" s="12">
-        <v>0.09</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10">
+      <c r="A3" s="2">
         <v>1.0</v>
       </c>
       <c r="B3" s="11">
@@ -2485,20 +2411,20 @@
         <v>12.0</v>
       </c>
       <c r="H3" s="11">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="I3" s="12">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="J3" s="12">
-        <v>5.0</v>
+        <v>50.0</v>
       </c>
       <c r="K3" s="12">
-        <v>0.1</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10">
+      <c r="A4" s="2">
         <v>2.0</v>
       </c>
       <c r="B4" s="11">
@@ -2520,20 +2446,20 @@
         <v>14.0</v>
       </c>
       <c r="H4" s="11">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="I4" s="12">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="12">
-        <v>4.0</v>
+        <v>70.0</v>
       </c>
       <c r="K4" s="12">
-        <v>0.12</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
         <v>3.0</v>
       </c>
       <c r="B5" s="11">
@@ -2555,90 +2481,50 @@
         <v>15.0</v>
       </c>
       <c r="H5" s="11">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="I5" s="12">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" s="12">
-        <v>3.0</v>
+        <v>100.0</v>
       </c>
       <c r="K5" s="12">
-        <v>0.15</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="11">
-        <v>2200.0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>160.0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>16.0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="I6" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2300.0</v>
-      </c>
-      <c r="C7" s="11">
-        <v>170.0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>13.0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>17.0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0.17</v>
-      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="2">
         <v>6.0</v>
       </c>
       <c r="B8" s="13"/>
@@ -2653,7 +2539,7 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="10">
+      <c r="A9" s="2">
         <v>7.0</v>
       </c>
       <c r="B9" s="13"/>
@@ -2668,7 +2554,7 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="2">
         <v>8.0</v>
       </c>
       <c r="B10" s="13"/>
@@ -2683,7 +2569,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="10">
+      <c r="A11" s="2">
         <v>9.0</v>
       </c>
       <c r="B11" s="13"/>
@@ -2698,7 +2584,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="10">
+      <c r="A12" s="2">
         <v>10.0</v>
       </c>
       <c r="B12" s="13"/>
@@ -2726,44 +2612,44 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="10" max="10" width="15.25"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
+      <c r="A1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="2">
         <v>0.0</v>
       </c>
       <c r="B2" s="11">
@@ -2791,11 +2677,14 @@
         <v>10.0</v>
       </c>
       <c r="J2" s="12">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10">
+      <c r="A3" s="2">
         <v>1.0</v>
       </c>
       <c r="B3" s="11">
@@ -2817,17 +2706,20 @@
         <v>12.0</v>
       </c>
       <c r="H3" s="11">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="I3" s="12">
         <v>12.0</v>
       </c>
       <c r="J3" s="12">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10">
+      <c r="A4" s="2">
         <v>2.0</v>
       </c>
       <c r="B4" s="11">
@@ -2849,17 +2741,20 @@
         <v>14.0</v>
       </c>
       <c r="H4" s="11">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="I4" s="12">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="J4" s="12">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
         <v>3.0</v>
       </c>
       <c r="B5" s="11">
@@ -2881,17 +2776,20 @@
         <v>15.0</v>
       </c>
       <c r="H5" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="I5" s="12">
         <v>18.0</v>
       </c>
       <c r="J5" s="12">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="2">
         <v>4.0</v>
       </c>
       <c r="B6" s="11">
@@ -2921,10 +2819,12 @@
       <c r="J6" s="12">
         <v>2.0</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="10">
+      <c r="A7" s="2">
         <v>5.0</v>
       </c>
       <c r="B7" s="11">
@@ -2954,10 +2854,12 @@
       <c r="J7" s="12">
         <v>1.0</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="2">
         <v>6.0</v>
       </c>
       <c r="B8" s="13"/>
@@ -2969,9 +2871,10 @@
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="10">
+      <c r="A9" s="2">
         <v>7.0</v>
       </c>
       <c r="B9" s="13"/>
@@ -2983,9 +2886,10 @@
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="2">
         <v>8.0</v>
       </c>
       <c r="B10" s="13"/>
@@ -2997,9 +2901,10 @@
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="10">
+      <c r="A11" s="2">
         <v>9.0</v>
       </c>
       <c r="B11" s="13"/>
@@ -3011,9 +2916,10 @@
       <c r="H11" s="13"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="10">
+      <c r="A12" s="2">
         <v>10.0</v>
       </c>
       <c r="B12" s="13"/>
@@ -3025,6 +2931,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3032,6 +2939,320 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="10" max="10" width="15.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1000.0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>100.0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1200.0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>110.0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1500.0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>120.0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2000.0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>150.0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2200.0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>160.0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2300.0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>170.0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3048,45 +3269,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
+      <c r="A1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="2">
         <v>0.0</v>
       </c>
       <c r="B2" s="11">
@@ -3124,7 +3345,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10">
+      <c r="A3" s="2">
         <v>1.0</v>
       </c>
       <c r="B3" s="11">
@@ -3162,7 +3383,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10">
+      <c r="A4" s="2">
         <v>2.0</v>
       </c>
       <c r="B4" s="11">
@@ -3200,7 +3421,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
         <v>3.0</v>
       </c>
       <c r="B5" s="11">
@@ -3238,7 +3459,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="2">
         <v>4.0</v>
       </c>
       <c r="B6" s="13"/>
@@ -3254,7 +3475,7 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="10">
+      <c r="A7" s="2">
         <v>5.0</v>
       </c>
       <c r="B7" s="13"/>
@@ -3270,7 +3491,7 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="2">
         <v>6.0</v>
       </c>
       <c r="B8" s="13"/>
@@ -3286,7 +3507,7 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="10">
+      <c r="A9" s="2">
         <v>7.0</v>
       </c>
       <c r="B9" s="13"/>
@@ -3302,7 +3523,7 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="2">
         <v>8.0</v>
       </c>
       <c r="B10" s="13"/>
@@ -3318,7 +3539,7 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="10">
+      <c r="A11" s="2">
         <v>9.0</v>
       </c>
       <c r="B11" s="13"/>
@@ -3334,7 +3555,7 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="10">
+      <c r="A12" s="2">
         <v>10.0</v>
       </c>
       <c r="B12" s="13"/>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -655,6 +655,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="7" max="7" width="12.0"/>
+    <col customWidth="1" min="11" max="11" width="12.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -2364,7 +2368,7 @@
         <v>100.0</v>
       </c>
       <c r="D2" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" s="11">
         <v>5.0</v>
@@ -2399,7 +2403,7 @@
         <v>110.0</v>
       </c>
       <c r="D3" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" s="11">
         <v>5.0</v>
@@ -2434,7 +2438,7 @@
         <v>120.0</v>
       </c>
       <c r="D4" s="11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" s="11">
         <v>7.0</v>
@@ -2469,7 +2473,7 @@
         <v>150.0</v>
       </c>
       <c r="D5" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" s="11">
         <v>10.0</v>
@@ -2659,7 +2663,7 @@
         <v>100.0</v>
       </c>
       <c r="D2" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" s="11">
         <v>5.0</v>
@@ -2694,7 +2698,7 @@
         <v>110.0</v>
       </c>
       <c r="D3" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" s="11">
         <v>5.0</v>
@@ -2729,7 +2733,7 @@
         <v>120.0</v>
       </c>
       <c r="D4" s="11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" s="11">
         <v>7.0</v>
@@ -2764,7 +2768,7 @@
         <v>150.0</v>
       </c>
       <c r="D5" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" s="11">
         <v>10.0</v>
@@ -2799,7 +2803,7 @@
         <v>160.0</v>
       </c>
       <c r="D6" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E6" s="11">
         <v>12.0</v>
@@ -2834,7 +2838,7 @@
         <v>170.0</v>
       </c>
       <c r="D7" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E7" s="11">
         <v>13.0</v>
@@ -2994,7 +2998,7 @@
         <v>100.0</v>
       </c>
       <c r="D2" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" s="11">
         <v>5.0</v>
@@ -3026,7 +3030,7 @@
         <v>110.0</v>
       </c>
       <c r="D3" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" s="11">
         <v>5.0</v>
@@ -3058,7 +3062,7 @@
         <v>120.0</v>
       </c>
       <c r="D4" s="11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" s="11">
         <v>7.0</v>
@@ -3090,7 +3094,7 @@
         <v>150.0</v>
       </c>
       <c r="D5" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" s="11">
         <v>10.0</v>
@@ -3122,7 +3126,7 @@
         <v>160.0</v>
       </c>
       <c r="D6" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E6" s="11">
         <v>12.0</v>
@@ -3155,7 +3159,7 @@
         <v>170.0</v>
       </c>
       <c r="D7" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E7" s="11">
         <v>13.0</v>
@@ -3317,7 +3321,7 @@
         <v>100.0</v>
       </c>
       <c r="D2" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" s="11">
         <v>5.0</v>
@@ -3355,7 +3359,7 @@
         <v>110.0</v>
       </c>
       <c r="D3" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" s="11">
         <v>5.0</v>
@@ -3393,7 +3397,7 @@
         <v>120.0</v>
       </c>
       <c r="D4" s="11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" s="11">
         <v>7.0</v>
@@ -3431,7 +3435,7 @@
         <v>150.0</v>
       </c>
       <c r="D5" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" s="11">
         <v>10.0</v>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -1572,7 +1572,7 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -1588,6 +1588,12 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="2">
         <v>5.0</v>
       </c>
     </row>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>Level_Name</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Cost_Level_Mercenary_Medic</t>
+  </si>
+  <si>
+    <t>Num</t>
   </si>
   <si>
     <t>Max_Mercenary</t>
@@ -788,22 +791,22 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="14">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H2" s="14">
-        <v>200.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I2" s="14">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J2" s="14">
-        <v>300.0</v>
+        <v>700.0</v>
       </c>
       <c r="K2" s="14">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="L2" s="14">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="M2" s="14">
         <v>500.0</v>
@@ -835,22 +838,22 @@
         <v>1.0</v>
       </c>
       <c r="G3" s="14">
-        <v>700.0</v>
+        <v>1200.0</v>
       </c>
       <c r="H3" s="14">
-        <v>300.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I3" s="14">
-        <v>700.0</v>
+        <v>1100.0</v>
       </c>
       <c r="J3" s="14">
-        <v>400.0</v>
+        <v>900.0</v>
       </c>
       <c r="K3" s="14">
-        <v>700.0</v>
+        <v>2000.0</v>
       </c>
       <c r="L3" s="14">
-        <v>700.0</v>
+        <v>200.0</v>
       </c>
       <c r="M3" s="14">
         <v>700.0</v>
@@ -882,19 +885,19 @@
         <v>1.0</v>
       </c>
       <c r="G4" s="14">
+        <v>1400.0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1800.0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1300.0</v>
+      </c>
+      <c r="J4" s="14">
         <v>1000.0</v>
       </c>
-      <c r="H4" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="J4" s="14">
-        <v>500.0</v>
-      </c>
       <c r="K4" s="14">
-        <v>800.0</v>
+        <v>3000.0</v>
       </c>
       <c r="L4" s="14">
         <v>800.0</v>
@@ -932,16 +935,16 @@
         <v>1500.0</v>
       </c>
       <c r="H5" s="14">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I5" s="14">
         <v>1500.0</v>
       </c>
       <c r="J5" s="14">
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
       <c r="K5" s="14">
-        <v>1000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="L5" s="14">
         <v>1000.0</v>
@@ -976,16 +979,16 @@
         <v>3.0</v>
       </c>
       <c r="G6" s="14">
-        <v>2000.0</v>
+        <v>1800.0</v>
       </c>
       <c r="H6" s="14">
+        <v>2200.0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1600.0</v>
+      </c>
+      <c r="J6" s="14">
         <v>1500.0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>2000.0</v>
-      </c>
-      <c r="J6" s="14">
-        <v>700.0</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -1013,16 +1016,16 @@
         <v>3.0</v>
       </c>
       <c r="G7" s="14">
-        <v>2500.0</v>
+        <v>2200.0</v>
       </c>
       <c r="H7" s="14">
+        <v>2400.0</v>
+      </c>
+      <c r="I7" s="14">
         <v>2000.0</v>
       </c>
-      <c r="I7" s="14">
-        <v>2500.0</v>
-      </c>
       <c r="J7" s="14">
-        <v>800.0</v>
+        <v>1800.0</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1522,13 +1525,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -1626,34 +1629,34 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -1661,7 +1664,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="15">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C2" s="15">
         <v>100.0</v>
@@ -1696,7 +1699,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15">
-        <v>600.0</v>
+        <v>2200.0</v>
       </c>
       <c r="C3" s="15">
         <v>100.0</v>
@@ -1731,7 +1734,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15">
-        <v>700.0</v>
+        <v>2400.0</v>
       </c>
       <c r="C4" s="15">
         <v>100.0</v>
@@ -1904,34 +1907,34 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -1939,7 +1942,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="15">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C2" s="15">
         <v>100.0</v>
@@ -1974,7 +1977,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15">
-        <v>600.0</v>
+        <v>2200.0</v>
       </c>
       <c r="C3" s="15">
         <v>110.0</v>
@@ -2009,7 +2012,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15">
-        <v>700.0</v>
+        <v>2400.0</v>
       </c>
       <c r="C4" s="15">
         <v>120.0</v>
@@ -2179,34 +2182,34 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -2214,7 +2217,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="15">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C2" s="15">
         <v>100.0</v>
@@ -2238,7 +2241,7 @@
         <v>10.0</v>
       </c>
       <c r="J2" s="16">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K2" s="16">
         <v>0.09</v>
@@ -2249,7 +2252,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15">
-        <v>600.0</v>
+        <v>2200.0</v>
       </c>
       <c r="C3" s="15">
         <v>105.0</v>
@@ -2273,7 +2276,7 @@
         <v>15.0</v>
       </c>
       <c r="J3" s="16">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="K3" s="16">
         <v>0.1</v>
@@ -2284,7 +2287,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15">
-        <v>700.0</v>
+        <v>2400.0</v>
       </c>
       <c r="C4" s="15">
         <v>110.0</v>
@@ -2308,7 +2311,7 @@
         <v>20.0</v>
       </c>
       <c r="J4" s="16">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K4" s="16">
         <v>0.12</v>
@@ -2319,7 +2322,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15">
-        <v>900.0</v>
+        <v>2600.0</v>
       </c>
       <c r="C5" s="15">
         <v>120.0</v>
@@ -2343,7 +2346,7 @@
         <v>40.0</v>
       </c>
       <c r="J5" s="16">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K5" s="16">
         <v>0.15</v>
@@ -2454,6 +2457,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
+    <row r="29" ht="1.5" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2477,31 +2481,31 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -2509,7 +2513,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="15">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C2" s="15">
         <v>100.0</v>
@@ -2541,7 +2545,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15">
-        <v>600.0</v>
+        <v>2200.0</v>
       </c>
       <c r="C3" s="15">
         <v>110.0</v>
@@ -2573,7 +2577,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15">
-        <v>700.0</v>
+        <v>2400.0</v>
       </c>
       <c r="C4" s="15">
         <v>120.0</v>
@@ -2605,7 +2609,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15">
-        <v>800.0</v>
+        <v>2800.0</v>
       </c>
       <c r="C5" s="15">
         <v>150.0</v>
@@ -2758,37 +2762,37 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -2796,7 +2800,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="15">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C2" s="15">
         <v>100.0</v>
@@ -2834,7 +2838,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15">
-        <v>600.0</v>
+        <v>2200.0</v>
       </c>
       <c r="C3" s="15">
         <v>110.0</v>
@@ -2872,7 +2876,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15">
-        <v>700.0</v>
+        <v>2400.0</v>
       </c>
       <c r="C4" s="15">
         <v>120.0</v>
@@ -2910,7 +2914,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15">
-        <v>800.0</v>
+        <v>2800.0</v>
       </c>
       <c r="C5" s="15">
         <v>150.0</v>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -11,6 +11,7 @@
     <sheet state="visible" name="Level_Mercenary_Long_Ranged" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Level_Mercenary_Short_Ranged" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Level_Mercenary_Medic" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Level_Mercenary_Bard" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>Level_Name</t>
   </si>
@@ -29,9 +30,6 @@
     <t>Level_Information</t>
   </si>
   <si>
-    <t>정식버전 출시할 경우</t>
-  </si>
-  <si>
     <t>Level_Player_Atk</t>
   </si>
   <si>
@@ -74,6 +72,9 @@
     <t>Level_Mercenary_Medic</t>
   </si>
   <si>
+    <t>Level_Mercenary_Bard</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -119,6 +120,9 @@
     <t>Cost_Level_Mercenary_Medic</t>
   </si>
   <si>
+    <t>Cost_Level_Mercenary_Bard</t>
+  </si>
+  <si>
     <t>Num</t>
   </si>
   <si>
@@ -186,6 +190,18 @@
   </si>
   <si>
     <t>Heal_HP_Parsent</t>
+  </si>
+  <si>
+    <t>Level_Type_HP_Buff</t>
+  </si>
+  <si>
+    <t>Level_Type_Atk_Buff</t>
+  </si>
+  <si>
+    <t>Level_Type_Atk_Delay_Buff</t>
+  </si>
+  <si>
+    <t>Level_Type_Def_Buff</t>
   </si>
 </sst>
 </file>
@@ -325,6 +341,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -547,162 +567,139 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>5.0</v>
       </c>
-      <c r="D2" s="5">
-        <v>30.0</v>
-      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>5.0</v>
       </c>
-      <c r="D3" s="5">
-        <v>30.0</v>
-      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>5.0</v>
       </c>
-      <c r="D4" s="5">
-        <v>30.0</v>
-      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>5.0</v>
       </c>
-      <c r="D5" s="5">
-        <v>30.0</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4">
         <v>5.0</v>
       </c>
-      <c r="D6" s="5">
-        <v>30.0</v>
-      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7">
         <v>5.0</v>
       </c>
-      <c r="D7" s="8">
-        <v>15.0</v>
-      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7">
         <v>5.0</v>
       </c>
-      <c r="D8" s="8">
-        <v>15.0</v>
-      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7">
         <v>5.0</v>
       </c>
-      <c r="D9" s="8">
-        <v>15.0</v>
-      </c>
+      <c r="D9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7">
         <v>5.0</v>
       </c>
-      <c r="D10" s="8">
-        <v>15.0</v>
-      </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="10">
         <v>2.0</v>
       </c>
-      <c r="D11" s="11">
-        <v>3.0</v>
-      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="10">
         <v>2.0</v>
       </c>
-      <c r="D12" s="11">
-        <v>3.0</v>
-      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="10">
         <v>3.0</v>
       </c>
-      <c r="D13" s="11">
-        <v>5.0</v>
-      </c>
+      <c r="D13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="10">
         <v>3.0</v>
       </c>
-      <c r="D14" s="11">
-        <v>5.0</v>
-      </c>
+      <c r="D14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="10">
         <v>2.0</v>
       </c>
-      <c r="D15" s="11">
-        <v>3.0</v>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -770,6 +767,9 @@
       <c r="O1" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="13">
@@ -817,6 +817,9 @@
       <c r="O2" s="14">
         <v>500.0</v>
       </c>
+      <c r="P2" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="13">
@@ -864,6 +867,9 @@
       <c r="O3" s="14">
         <v>700.0</v>
       </c>
+      <c r="P3" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="13">
@@ -911,6 +917,9 @@
       <c r="O4" s="14">
         <v>800.0</v>
       </c>
+      <c r="P4" s="2">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="13">
@@ -957,6 +966,9 @@
       </c>
       <c r="O5" s="14">
         <v>1000.0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -1525,13 +1537,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -1629,34 +1641,34 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -1907,34 +1919,34 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -2182,34 +2194,34 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -2481,31 +2493,31 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -2762,37 +2774,37 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -2821,7 +2833,7 @@
         <v>10.0</v>
       </c>
       <c r="I2" s="16">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" s="16">
         <v>40.0</v>
@@ -2859,7 +2871,7 @@
         <v>8.0</v>
       </c>
       <c r="I3" s="16">
-        <v>30.0</v>
+        <v>150.0</v>
       </c>
       <c r="J3" s="16">
         <v>45.0</v>
@@ -2897,7 +2909,7 @@
         <v>6.0</v>
       </c>
       <c r="I4" s="16">
-        <v>40.0</v>
+        <v>200.0</v>
       </c>
       <c r="J4" s="16">
         <v>60.0</v>
@@ -2935,7 +2947,7 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="16">
-        <v>50.0</v>
+        <v>250.0</v>
       </c>
       <c r="J5" s="16">
         <v>70.0</v>
@@ -3062,4 +3074,267 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="I2" s="16">
+        <v>100.0</v>
+      </c>
+      <c r="J2" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="15">
+        <v>2200.0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>110.0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>12.0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>200.0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2400.0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>120.0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>300.0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -132,6 +132,9 @@
     <t>Max_Train</t>
   </si>
   <si>
+    <t>Cost_Add_Train</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
@@ -196,9 +199,6 @@
   </si>
   <si>
     <t>Level_Type_Atk_Buff</t>
-  </si>
-  <si>
-    <t>Level_Type_Atk_Delay_Buff</t>
   </si>
   <si>
     <t>Level_Type_Def_Buff</t>
@@ -1545,6 +1545,9 @@
       <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -1556,6 +1559,9 @@
       <c r="C2" s="2">
         <v>2.0</v>
       </c>
+      <c r="D2" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -1567,6 +1573,9 @@
       <c r="C3" s="2">
         <v>3.0</v>
       </c>
+      <c r="D3" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -1578,6 +1587,9 @@
       <c r="C4" s="2">
         <v>4.0</v>
       </c>
+      <c r="D4" s="2">
+        <v>1000.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -1588,6 +1600,9 @@
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="6">
@@ -1600,6 +1615,9 @@
       <c r="C6" s="2">
         <v>5.0</v>
       </c>
+      <c r="D6" s="2">
+        <v>5000.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -1610,6 +1628,9 @@
       </c>
       <c r="C7" s="2">
         <v>5.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5000.0</v>
       </c>
     </row>
   </sheetData>
@@ -1641,34 +1662,34 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1919,34 +1940,34 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -2194,34 +2215,34 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -2493,31 +2514,31 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -2774,37 +2795,37 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -3091,36 +3112,33 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3155,10 +3173,7 @@
       <c r="J2" s="16">
         <v>5.0</v>
       </c>
-      <c r="K2" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="K2" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -3193,10 +3208,7 @@
       <c r="J3" s="16">
         <v>6.0</v>
       </c>
-      <c r="K3" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="K3" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -3231,10 +3243,7 @@
       <c r="J4" s="16">
         <v>7.0</v>
       </c>
-      <c r="K4" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="2">
         <v>4.0</v>
       </c>
     </row>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -12,6 +12,7 @@
     <sheet state="visible" name="Level_Mercenary_Short_Ranged" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Level_Mercenary_Medic" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Level_Mercenary_Bard" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Level_Mercenary_CowBoy" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Level_Name</t>
   </si>
@@ -75,6 +76,9 @@
     <t>Level_Mercenary_Bard</t>
   </si>
   <si>
+    <t>Level_Mercenary_CowBoy</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -123,6 +127,9 @@
     <t>Cost_Level_Mercenary_Bard</t>
   </si>
   <si>
+    <t>Cost_Level_Mercenary_CowBoy</t>
+  </si>
+  <si>
     <t>Num</t>
   </si>
   <si>
@@ -138,24 +145,21 @@
     <t>HP</t>
   </si>
   <si>
-    <t>Stamina</t>
-  </si>
-  <si>
     <t>MoveSpeed</t>
   </si>
   <si>
-    <t>Refresh_Amount</t>
-  </si>
-  <si>
-    <t>Refresh_Delay</t>
+    <t>Max_WorkCount</t>
+  </si>
+  <si>
+    <t>Min_Refresh_Delay</t>
+  </si>
+  <si>
+    <t>Max_Refresh_Delay</t>
   </si>
   <si>
     <t>Def</t>
   </si>
   <si>
-    <t>Use_Stamina</t>
-  </si>
-  <si>
     <t>Level_Type_Speed</t>
   </si>
   <si>
@@ -180,16 +184,7 @@
     <t>Unit_Atk_Delay</t>
   </si>
   <si>
-    <t>WorkSpeed</t>
-  </si>
-  <si>
     <t>Heal_Hp_Amount</t>
-  </si>
-  <si>
-    <t>Heal_Stamina_Amount</t>
-  </si>
-  <si>
-    <t>Heal_Revive_Amount</t>
   </si>
   <si>
     <t>Heal_HP_Parsent</t>
@@ -226,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +246,12 @@
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -258,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -304,6 +305,10 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -313,6 +318,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -702,6 +711,209 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>15.0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="15">
+        <v>2200.0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>12.0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2400.0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>12.0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -723,52 +935,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -818,7 +1033,10 @@
         <v>500.0</v>
       </c>
       <c r="P2" s="2">
-        <v>1.0</v>
+        <v>1000.0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="3">
@@ -868,7 +1086,10 @@
         <v>700.0</v>
       </c>
       <c r="P3" s="2">
-        <v>2.0</v>
+        <v>2000.0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="4">
@@ -918,7 +1139,10 @@
         <v>800.0</v>
       </c>
       <c r="P4" s="2">
-        <v>3.0</v>
+        <v>3000.0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4000.0</v>
       </c>
     </row>
     <row r="5">
@@ -968,7 +1192,10 @@
         <v>1000.0</v>
       </c>
       <c r="P5" s="2">
-        <v>4.0</v>
+        <v>4000.0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5000.0</v>
       </c>
     </row>
     <row r="6">
@@ -1537,16 +1764,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -1630,7 +1857,7 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="2">
-        <v>5000.0</v>
+        <v>99999.0</v>
       </c>
     </row>
   </sheetData>
@@ -1652,6 +1879,7 @@
     <col customWidth="1" min="3" max="3" width="13.38"/>
     <col customWidth="1" min="4" max="4" width="13.0"/>
     <col customWidth="1" min="5" max="5" width="13.5"/>
+    <col customWidth="1" min="6" max="6" width="13.38"/>
     <col customWidth="1" min="9" max="9" width="15.25"/>
     <col customWidth="1" min="10" max="10" width="13.75"/>
     <col customWidth="1" min="11" max="11" width="13.0"/>
@@ -1659,37 +1887,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -1700,7 +1925,7 @@
         <v>2000.0</v>
       </c>
       <c r="C2" s="15">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="15">
         <v>0.0</v>
@@ -1714,16 +1939,13 @@
       <c r="G2" s="15">
         <v>5.0</v>
       </c>
-      <c r="H2" s="15">
-        <v>0.0</v>
+      <c r="H2" s="16">
+        <v>3.0</v>
       </c>
       <c r="I2" s="16">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J2" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="K2" s="16">
         <v>10.0</v>
       </c>
     </row>
@@ -1735,7 +1957,7 @@
         <v>2200.0</v>
       </c>
       <c r="C3" s="15">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="15">
         <v>0.0</v>
@@ -1749,16 +1971,13 @@
       <c r="G3" s="15">
         <v>7.0</v>
       </c>
-      <c r="H3" s="15">
-        <v>0.0</v>
+      <c r="H3" s="16">
+        <v>6.0</v>
       </c>
       <c r="I3" s="16">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="J3" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="K3" s="16">
         <v>12.0</v>
       </c>
     </row>
@@ -1770,7 +1989,7 @@
         <v>2400.0</v>
       </c>
       <c r="C4" s="15">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="15">
         <v>0.0</v>
@@ -1784,16 +2003,13 @@
       <c r="G4" s="15">
         <v>10.0</v>
       </c>
-      <c r="H4" s="15">
-        <v>0.0</v>
+      <c r="H4" s="16">
+        <v>9.0</v>
       </c>
       <c r="I4" s="16">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="J4" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="K4" s="16">
         <v>15.0</v>
       </c>
     </row>
@@ -1805,117 +2021,109 @@
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1937,37 +2145,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -1978,30 +2183,27 @@
         <v>2000.0</v>
       </c>
       <c r="C2" s="15">
-        <v>100.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" s="15">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" s="15">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F2" s="15">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="G2" s="15">
         <v>5.0</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="I2" s="16">
         <v>10.0</v>
       </c>
-      <c r="I2" s="16">
-        <v>2.0</v>
-      </c>
       <c r="J2" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="K2" s="16">
         <v>70.0</v>
       </c>
     </row>
@@ -2013,30 +2215,27 @@
         <v>2200.0</v>
       </c>
       <c r="C3" s="15">
-        <v>110.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" s="15">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="E3" s="15">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F3" s="15">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="G3" s="15">
         <v>7.0</v>
       </c>
-      <c r="H3" s="15">
-        <v>7.0</v>
+      <c r="H3" s="16">
+        <v>2.0</v>
       </c>
       <c r="I3" s="16">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="J3" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="K3" s="16">
         <v>70.0</v>
       </c>
     </row>
@@ -2048,30 +2247,27 @@
         <v>2400.0</v>
       </c>
       <c r="C4" s="15">
-        <v>120.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" s="15">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="E4" s="15">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F4" s="15">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="G4" s="15">
         <v>10.0</v>
       </c>
-      <c r="H4" s="15">
-        <v>5.0</v>
+      <c r="H4" s="16">
+        <v>1.0</v>
       </c>
       <c r="I4" s="16">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="J4" s="16">
-        <v>15.0</v>
-      </c>
-      <c r="K4" s="16">
         <v>75.0</v>
       </c>
     </row>
@@ -2083,12 +2279,11 @@
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -2100,10 +2295,9 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -2115,10 +2309,9 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -2130,10 +2323,9 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -2145,10 +2337,9 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -2160,10 +2351,9 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -2175,10 +2365,9 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -2190,10 +2379,9 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2212,36 +2400,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2253,31 +2435,25 @@
         <v>2000.0</v>
       </c>
       <c r="C2" s="15">
-        <v>100.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" s="15">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" s="15">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F2" s="15">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="G2" s="15">
         <v>5.0</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="16">
         <v>10.0</v>
       </c>
       <c r="I2" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="J2" s="16">
         <v>5.0</v>
-      </c>
-      <c r="K2" s="16">
-        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -2288,31 +2464,25 @@
         <v>2200.0</v>
       </c>
       <c r="C3" s="15">
-        <v>105.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" s="15">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" s="15">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" s="15">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="G3" s="15">
         <v>7.0</v>
       </c>
-      <c r="H3" s="15">
-        <v>9.0</v>
+      <c r="H3" s="16">
+        <v>15.0</v>
       </c>
       <c r="I3" s="16">
-        <v>15.0</v>
-      </c>
-      <c r="J3" s="16">
         <v>4.0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -2323,31 +2493,25 @@
         <v>2400.0</v>
       </c>
       <c r="C4" s="15">
-        <v>110.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" s="15">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" s="15">
         <v>7.0</v>
       </c>
       <c r="F4" s="15">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="G4" s="15">
         <v>10.0</v>
       </c>
-      <c r="H4" s="15">
-        <v>8.0</v>
+      <c r="H4" s="16">
+        <v>20.0</v>
       </c>
       <c r="I4" s="16">
-        <v>20.0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0.12</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2358,31 +2522,25 @@
         <v>2600.0</v>
       </c>
       <c r="C5" s="15">
-        <v>120.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" s="15">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="F5" s="15">
         <v>10.0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1.0</v>
       </c>
       <c r="G5" s="15">
         <v>12.0</v>
       </c>
-      <c r="H5" s="15">
-        <v>6.0</v>
+      <c r="H5" s="16">
+        <v>40.0</v>
       </c>
       <c r="I5" s="16">
-        <v>40.0</v>
-      </c>
-      <c r="J5" s="16">
         <v>2.0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -2394,11 +2552,9 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -2409,11 +2565,9 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -2425,10 +2579,8 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -2440,10 +2592,8 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -2455,10 +2605,8 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -2470,10 +2618,8 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -2485,10 +2631,8 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
     </row>
     <row r="29" ht="1.5" customHeight="1"/>
   </sheetData>
@@ -2511,34 +2655,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -2549,27 +2690,24 @@
         <v>2000.0</v>
       </c>
       <c r="C2" s="15">
-        <v>100.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" s="15">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" s="15">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F2" s="15">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="G2" s="15">
         <v>10.0</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="16">
         <v>10.0</v>
       </c>
       <c r="I2" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="J2" s="16">
         <v>5.0</v>
       </c>
     </row>
@@ -2581,27 +2719,24 @@
         <v>2200.0</v>
       </c>
       <c r="C3" s="15">
-        <v>110.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" s="15">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" s="15">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" s="15">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="G3" s="15">
         <v>15.0</v>
       </c>
-      <c r="H3" s="15">
-        <v>8.0</v>
+      <c r="H3" s="16">
+        <v>12.0</v>
       </c>
       <c r="I3" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="J3" s="16">
         <v>4.0</v>
       </c>
     </row>
@@ -2613,29 +2748,30 @@
         <v>2400.0</v>
       </c>
       <c r="C4" s="15">
-        <v>120.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="15">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" s="15">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F4" s="15">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="G4" s="15">
         <v>18.0</v>
       </c>
-      <c r="H4" s="15">
-        <v>6.0</v>
+      <c r="H4" s="16">
+        <v>13.0</v>
       </c>
       <c r="I4" s="16">
-        <v>13.0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>3.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -2645,29 +2781,30 @@
         <v>2800.0</v>
       </c>
       <c r="C5" s="15">
-        <v>150.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="15">
         <v>6.0</v>
       </c>
-      <c r="E5" s="15">
-        <v>10.0</v>
-      </c>
       <c r="F5" s="15">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="G5" s="15">
         <v>20.0</v>
       </c>
-      <c r="H5" s="15">
-        <v>3.0</v>
+      <c r="H5" s="16">
+        <v>18.0</v>
       </c>
       <c r="I5" s="16">
-        <v>18.0</v>
-      </c>
-      <c r="J5" s="16">
         <v>2.0</v>
       </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -2677,12 +2814,14 @@
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -2692,12 +2831,14 @@
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -2709,9 +2850,12 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -2723,9 +2867,12 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -2737,9 +2884,12 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -2751,9 +2901,12 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -2765,9 +2918,8 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2792,41 +2944,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="J1" s="20"/>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -2836,35 +2980,27 @@
         <v>2000.0</v>
       </c>
       <c r="C2" s="15">
-        <v>100.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" s="15">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" s="15">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F2" s="15">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="G2" s="15">
         <v>10.0</v>
       </c>
-      <c r="H2" s="15">
-        <v>10.0</v>
+      <c r="H2" s="16">
+        <v>100.0</v>
       </c>
       <c r="I2" s="16">
-        <v>100.0</v>
-      </c>
-      <c r="J2" s="16">
-        <v>40.0</v>
-      </c>
-      <c r="K2" s="16">
         <v>50.0</v>
       </c>
-      <c r="L2" s="16">
-        <v>50.0</v>
-      </c>
+      <c r="J2" s="20"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -2874,35 +3010,27 @@
         <v>2200.0</v>
       </c>
       <c r="C3" s="15">
-        <v>110.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" s="15">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="E3" s="15">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F3" s="15">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="G3" s="15">
         <v>12.0</v>
       </c>
-      <c r="H3" s="15">
-        <v>8.0</v>
+      <c r="H3" s="16">
+        <v>150.0</v>
       </c>
       <c r="I3" s="16">
-        <v>150.0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>45.0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>60.0</v>
-      </c>
-      <c r="L3" s="16">
         <v>55.0</v>
       </c>
+      <c r="J3" s="20"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -2912,35 +3040,27 @@
         <v>2400.0</v>
       </c>
       <c r="C4" s="15">
-        <v>120.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="15">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="E4" s="15">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F4" s="15">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="G4" s="15">
         <v>14.0</v>
       </c>
-      <c r="H4" s="15">
-        <v>6.0</v>
+      <c r="H4" s="16">
+        <v>200.0</v>
       </c>
       <c r="I4" s="16">
-        <v>200.0</v>
-      </c>
-      <c r="J4" s="16">
         <v>60.0</v>
       </c>
-      <c r="K4" s="16">
-        <v>70.0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>60.0</v>
-      </c>
+      <c r="J4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -2950,35 +3070,27 @@
         <v>2800.0</v>
       </c>
       <c r="C5" s="15">
-        <v>150.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" s="15">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="E5" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="F5" s="15">
         <v>10.0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1.0</v>
       </c>
       <c r="G5" s="15">
         <v>15.0</v>
       </c>
-      <c r="H5" s="15">
-        <v>3.0</v>
+      <c r="H5" s="16">
+        <v>250.0</v>
       </c>
       <c r="I5" s="16">
-        <v>250.0</v>
-      </c>
-      <c r="J5" s="16">
         <v>70.0</v>
       </c>
-      <c r="K5" s="16">
-        <v>100.0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>70.0</v>
-      </c>
+      <c r="J5" s="20"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -2990,11 +3102,9 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -3006,11 +3116,9 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -3022,11 +3130,9 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -3038,11 +3144,9 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -3054,11 +3158,9 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -3070,11 +3172,9 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -3086,11 +3186,9 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="J12" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3109,37 +3207,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -3150,30 +3245,27 @@
         <v>2000.0</v>
       </c>
       <c r="C2" s="15">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="15">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="15">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" s="15">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" s="15">
         <v>10.0</v>
       </c>
-      <c r="H2" s="15">
-        <v>10.0</v>
+      <c r="H2" s="16">
+        <v>100.0</v>
       </c>
       <c r="I2" s="16">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="J2" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="K2" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -3185,30 +3277,27 @@
         <v>2200.0</v>
       </c>
       <c r="C3" s="15">
-        <v>110.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="15">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" s="15">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" s="15">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" s="15">
         <v>12.0</v>
       </c>
-      <c r="H3" s="15">
-        <v>8.0</v>
+      <c r="H3" s="16">
+        <v>200.0</v>
       </c>
       <c r="I3" s="16">
-        <v>200.0</v>
+        <v>6.0</v>
       </c>
       <c r="J3" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="K3" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -3220,30 +3309,27 @@
         <v>2400.0</v>
       </c>
       <c r="C4" s="15">
-        <v>120.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="15">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="15">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="F4" s="15">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="15">
         <v>14.0</v>
       </c>
-      <c r="H4" s="15">
-        <v>6.0</v>
+      <c r="H4" s="16">
+        <v>300.0</v>
       </c>
       <c r="I4" s="16">
-        <v>300.0</v>
+        <v>7.0</v>
       </c>
       <c r="J4" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="K4" s="2">
         <v>4.0</v>
       </c>
     </row>
@@ -3256,8 +3342,10 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -3269,7 +3357,9 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -3281,7 +3371,9 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -3293,7 +3385,9 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -3305,7 +3399,9 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -3317,7 +3413,9 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -3329,7 +3427,9 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -3341,7 +3441,9 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
   <si>
     <t>Level_Name</t>
   </si>
@@ -109,27 +109,6 @@
     <t>Cost_Level_Train_Efficient</t>
   </si>
   <si>
-    <t>Cost_Level_Mercenary_Engine_Driver</t>
-  </si>
-  <si>
-    <t>Cost_Level_Mercenary_Engineer</t>
-  </si>
-  <si>
-    <t>Cost_Level_Mercenary_Long_Ranged</t>
-  </si>
-  <si>
-    <t>Cost_Level_Mercenary_Short_Ranged</t>
-  </si>
-  <si>
-    <t>Cost_Level_Mercenary_Medic</t>
-  </si>
-  <si>
-    <t>Cost_Level_Mercenary_Bard</t>
-  </si>
-  <si>
-    <t>Cost_Level_Mercenary_CowBoy</t>
-  </si>
-  <si>
     <t>Num</t>
   </si>
   <si>
@@ -167,6 +146,12 @@
   </si>
   <si>
     <t>Level_Type_Def</t>
+  </si>
+  <si>
+    <t>Upgrade_Cost</t>
+  </si>
+  <si>
+    <t>Material</t>
   </si>
   <si>
     <t>Repair_Delay</t>
@@ -259,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -306,9 +291,6 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -733,28 +715,38 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="12.0"/>
+    <col customWidth="1" min="9" max="9" width="13.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -779,6 +771,12 @@
       <c r="G2" s="15">
         <v>10.0</v>
       </c>
+      <c r="H2" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -802,6 +800,12 @@
       <c r="G3" s="15">
         <v>12.0</v>
       </c>
+      <c r="H3" s="14">
+        <v>2000.0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -824,6 +828,12 @@
       </c>
       <c r="G4" s="15">
         <v>14.0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>3000.0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -836,6 +846,7 @@
       <c r="E5" s="15"/>
       <c r="F5" s="17"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -847,6 +858,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -858,6 +870,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -869,6 +882,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -880,6 +894,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -891,6 +906,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -902,6 +918,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -913,6 +930,67 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -930,7 +1008,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="7" max="7" width="12.0"/>
-    <col customWidth="1" min="11" max="11" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -964,27 +1041,10 @@
       <c r="J1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2">
       <c r="A2" s="13">
@@ -1017,27 +1077,10 @@
       <c r="J2" s="14">
         <v>700.0</v>
       </c>
-      <c r="K2" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="L2" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="M2" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="N2" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="O2" s="14">
-        <v>500.0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2000.0</v>
-      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="13">
@@ -1070,27 +1113,10 @@
       <c r="J3" s="14">
         <v>900.0</v>
       </c>
-      <c r="K3" s="14">
-        <v>2000.0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="M3" s="14">
-        <v>700.0</v>
-      </c>
-      <c r="N3" s="14">
-        <v>700.0</v>
-      </c>
-      <c r="O3" s="14">
-        <v>700.0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>2000.0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>3000.0</v>
-      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="13">
@@ -1123,27 +1149,10 @@
       <c r="J4" s="14">
         <v>1000.0</v>
       </c>
-      <c r="K4" s="14">
-        <v>3000.0</v>
-      </c>
-      <c r="L4" s="14">
-        <v>800.0</v>
-      </c>
-      <c r="M4" s="14">
-        <v>800.0</v>
-      </c>
-      <c r="N4" s="14">
-        <v>800.0</v>
-      </c>
-      <c r="O4" s="14">
-        <v>800.0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>4000.0</v>
-      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="13">
@@ -1176,27 +1185,10 @@
       <c r="J5" s="14">
         <v>1200.0</v>
       </c>
-      <c r="K5" s="14">
-        <v>4000.0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="N5" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="O5" s="14">
-        <v>1000.0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>4000.0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>5000.0</v>
-      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="13">
@@ -1229,7 +1221,6 @@
       <c r="J6" s="14">
         <v>1500.0</v>
       </c>
-      <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -1266,7 +1257,6 @@
       <c r="J7" s="14">
         <v>1800.0</v>
       </c>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1285,7 +1275,6 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1304,7 +1293,6 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1323,7 +1311,6 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1342,7 +1329,6 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1361,7 +1347,6 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1380,7 +1365,6 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1399,7 +1383,6 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1418,7 +1401,6 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1437,7 +1419,6 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1456,7 +1437,6 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1475,7 +1455,6 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1494,7 +1473,6 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1513,7 +1491,6 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1532,7 +1509,6 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1551,7 +1527,6 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1570,7 +1545,6 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1589,7 +1563,6 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1608,7 +1581,6 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1627,7 +1599,6 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1646,7 +1617,6 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1665,7 +1635,6 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1684,7 +1653,6 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1703,7 +1671,6 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1722,7 +1689,6 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1741,7 +1707,6 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1764,16 +1729,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -1882,7 +1847,8 @@
     <col customWidth="1" min="6" max="6" width="13.38"/>
     <col customWidth="1" min="9" max="9" width="15.25"/>
     <col customWidth="1" min="10" max="10" width="13.75"/>
-    <col customWidth="1" min="11" max="11" width="13.0"/>
+    <col customWidth="1" min="11" max="11" width="12.0"/>
+    <col customWidth="1" min="12" max="12" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1890,31 +1856,37 @@
         <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="L1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -1948,6 +1920,12 @@
       <c r="J2" s="16">
         <v>10.0</v>
       </c>
+      <c r="K2" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -1980,6 +1958,12 @@
       <c r="J3" s="16">
         <v>12.0</v>
       </c>
+      <c r="K3" s="14">
+        <v>2000.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -2011,6 +1995,12 @@
       </c>
       <c r="J4" s="16">
         <v>15.0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>3000.0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -2026,6 +2016,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -2040,6 +2031,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -2054,6 +2046,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -2068,6 +2061,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -2082,6 +2076,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -2096,6 +2091,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -2110,6 +2106,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -2124,6 +2121,67 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="K32" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2140,7 +2198,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="11" max="11" width="17.25"/>
+    <col customWidth="1" min="11" max="11" width="12.0"/>
+    <col customWidth="1" min="12" max="12" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2148,31 +2207,37 @@
         <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="L1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -2206,6 +2271,12 @@
       <c r="J2" s="16">
         <v>70.0</v>
       </c>
+      <c r="K2" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -2238,6 +2309,12 @@
       <c r="J3" s="16">
         <v>70.0</v>
       </c>
+      <c r="K3" s="14">
+        <v>2000.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -2269,6 +2346,12 @@
       </c>
       <c r="J4" s="16">
         <v>75.0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>3000.0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -2284,6 +2367,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -2298,6 +2382,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -2312,6 +2397,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -2326,6 +2412,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -2340,6 +2427,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -2354,6 +2442,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -2368,6 +2457,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -2382,6 +2472,67 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="K32" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2397,34 +2548,44 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="10" max="10" width="12.0"/>
+    <col customWidth="1" min="11" max="11" width="13.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -2455,6 +2616,12 @@
       <c r="I2" s="16">
         <v>5.0</v>
       </c>
+      <c r="J2" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -2484,6 +2651,12 @@
       <c r="I3" s="16">
         <v>4.0</v>
       </c>
+      <c r="J3" s="14">
+        <v>2000.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -2513,6 +2686,12 @@
       <c r="I4" s="16">
         <v>3.0</v>
       </c>
+      <c r="J4" s="14">
+        <v>3000.0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -2542,6 +2721,7 @@
       <c r="I5" s="16">
         <v>2.0</v>
       </c>
+      <c r="J5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -2555,6 +2735,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -2568,6 +2749,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -2581,6 +2763,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -2594,6 +2777,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -2607,6 +2791,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -2620,6 +2805,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -2633,8 +2819,68 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-    </row>
-    <row r="29" ht="1.5" customHeight="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" ht="1.5" customHeight="1">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="J32" s="1"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2650,7 +2896,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.25"/>
+    <col customWidth="1" min="10" max="10" width="12.0"/>
+    <col customWidth="1" min="11" max="11" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2658,28 +2905,34 @@
         <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -2710,6 +2963,12 @@
       <c r="I2" s="16">
         <v>5.0</v>
       </c>
+      <c r="J2" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -2739,6 +2998,12 @@
       <c r="I3" s="16">
         <v>4.0</v>
       </c>
+      <c r="J3" s="14">
+        <v>2000.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -2768,8 +3033,12 @@
       <c r="I4" s="16">
         <v>3.0</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="J4" s="14">
+        <v>3000.0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6.0</v>
+      </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
@@ -2801,8 +3070,7 @@
       <c r="I5" s="16">
         <v>2.0</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="J5" s="14"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
     </row>
@@ -2818,8 +3086,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="J6" s="13"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
     </row>
@@ -2835,8 +3102,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
+      <c r="J7" s="1"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
     </row>
@@ -2852,8 +3118,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="J8" s="1"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
@@ -2869,8 +3134,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="J9" s="1"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
     </row>
@@ -2886,8 +3150,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="J10" s="1"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
     </row>
@@ -2903,8 +3166,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="J11" s="1"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
     </row>
@@ -2920,6 +3182,67 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2937,8 +3260,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="9" max="9" width="13.25"/>
-    <col customWidth="1" min="10" max="10" width="17.25"/>
-    <col customWidth="1" min="11" max="11" width="16.25"/>
+    <col customWidth="1" min="10" max="10" width="12.0"/>
+    <col customWidth="1" min="11" max="11" width="13.0"/>
     <col customWidth="1" min="12" max="12" width="14.38"/>
   </cols>
   <sheetData>
@@ -2947,30 +3270,35 @@
         <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="20"/>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -3000,7 +3328,12 @@
       <c r="I2" s="16">
         <v>50.0</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -3030,7 +3363,12 @@
       <c r="I3" s="16">
         <v>55.0</v>
       </c>
-      <c r="J3" s="20"/>
+      <c r="J3" s="14">
+        <v>2000.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -3060,7 +3398,12 @@
       <c r="I4" s="16">
         <v>60.0</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="14">
+        <v>3000.0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -3090,7 +3433,7 @@
       <c r="I5" s="16">
         <v>70.0</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -3104,7 +3447,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -3118,7 +3461,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -3132,7 +3475,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -3146,7 +3489,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -3160,7 +3503,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -3174,7 +3517,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -3188,7 +3531,67 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3204,37 +3607,47 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="11" max="11" width="12.0"/>
+    <col customWidth="1" min="12" max="12" width="13.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="L1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -3268,6 +3681,12 @@
       <c r="J2" s="16">
         <v>2.0</v>
       </c>
+      <c r="K2" s="14">
+        <v>1000.0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -3300,6 +3719,12 @@
       <c r="J3" s="16">
         <v>3.0</v>
       </c>
+      <c r="K3" s="14">
+        <v>2000.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -3331,6 +3756,12 @@
       </c>
       <c r="J4" s="16">
         <v>4.0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>3000.0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -3346,6 +3777,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -3360,6 +3792,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -3374,6 +3807,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -3388,6 +3822,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -3402,6 +3837,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -3416,6 +3852,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -3430,6 +3867,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -3444,6 +3882,67 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="K32" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -618,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -636,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="7">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -1069,7 +1069,7 @@
         <v>1000.0</v>
       </c>
       <c r="H2" s="14">
-        <v>1300.0</v>
+        <v>500.0</v>
       </c>
       <c r="I2" s="14">
         <v>1000.0</v>
@@ -1105,7 +1105,7 @@
         <v>1200.0</v>
       </c>
       <c r="H3" s="14">
-        <v>1500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I3" s="14">
         <v>1100.0</v>
@@ -1141,7 +1141,7 @@
         <v>1400.0</v>
       </c>
       <c r="H4" s="14">
-        <v>1800.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I4" s="14">
         <v>1300.0</v>
@@ -1177,7 +1177,7 @@
         <v>1500.0</v>
       </c>
       <c r="H5" s="14">
-        <v>2000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I5" s="14">
         <v>1500.0</v>
@@ -1213,7 +1213,7 @@
         <v>1800.0</v>
       </c>
       <c r="H6" s="14">
-        <v>2200.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I6" s="14">
         <v>1600.0</v>
@@ -1249,7 +1249,7 @@
         <v>2200.0</v>
       </c>
       <c r="H7" s="14">
-        <v>2400.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I7" s="14">
         <v>2000.0</v>
@@ -1271,10 +1271,16 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="14">
+        <v>2400.0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>4000.0</v>
+      </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="14">
+        <v>2000.0</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1289,10 +1295,16 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="14">
+        <v>2600.0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>4500.0</v>
+      </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="14">
+        <v>3000.0</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1307,10 +1319,16 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="14">
+        <v>2800.0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>5000.0</v>
+      </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="14">
+        <v>4000.0</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1325,10 +1343,16 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="14">
+        <v>2900.0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>6000.0</v>
+      </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="14">
+        <v>5000.0</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1344,7 +1368,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="L12" s="1"/>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -1784,7 +1784,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="2">
         <v>3.0</v>
@@ -1798,7 +1798,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="2">
         <v>4.0</v>
@@ -1812,7 +1812,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
@@ -1826,10 +1826,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C6" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" s="2">
         <v>5000.0</v>
@@ -1840,13 +1840,69 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C7" s="2">
         <v>5.0</v>
       </c>
       <c r="D7" s="2">
-        <v>99999.0</v>
+        <v>7000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9.9999999E7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -840,13 +840,30 @@
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="15">
+        <v>2600.0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>12.0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>4000.0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -840,30 +840,13 @@
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15">
-        <v>2600.0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>12.0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>14.0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>4000.0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>8.0</v>
-      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="2">

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>Level_Name</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Level_Type_Def_Buff</t>
+  </si>
+  <si>
+    <t>NextLevel_WorkCount</t>
   </si>
 </sst>
 </file>
@@ -748,6 +751,9 @@
       <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -766,7 +772,7 @@
         <v>10.0</v>
       </c>
       <c r="F2" s="15">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G2" s="15">
         <v>10.0</v>
@@ -775,6 +781,9 @@
         <v>1000.0</v>
       </c>
       <c r="I2" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J2" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -792,7 +801,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="15">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="F3" s="15">
         <v>12.0</v>
@@ -805,6 +814,9 @@
       </c>
       <c r="I3" s="2">
         <v>4.0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -824,7 +836,7 @@
         <v>8.0</v>
       </c>
       <c r="F4" s="15">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G4" s="15">
         <v>14.0</v>
@@ -834,19 +846,42 @@
       </c>
       <c r="I4" s="2">
         <v>6.0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="15">
+        <v>2600.0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>4000.0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -1904,6 +1939,23 @@
       <c r="D11" s="2">
         <v>0.0</v>
       </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Train/Assets/Data_Level/Level_DataTable.xlsx
+++ b/Train/Assets/Data_Level/Level_DataTable.xlsx
@@ -1101,16 +1101,16 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="14">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H2" s="14">
         <v>500.0</v>
       </c>
       <c r="I2" s="14">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="J2" s="14">
-        <v>700.0</v>
+        <v>500.0</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -1137,16 +1137,16 @@
         <v>1.0</v>
       </c>
       <c r="G3" s="14">
-        <v>1200.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H3" s="14">
         <v>1000.0</v>
       </c>
       <c r="I3" s="14">
-        <v>1100.0</v>
+        <v>1500.0</v>
       </c>
       <c r="J3" s="14">
-        <v>900.0</v>
+        <v>1000.0</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -1173,16 +1173,16 @@
         <v>1.0</v>
       </c>
       <c r="G4" s="14">
-        <v>1400.0</v>
+        <v>1500.0</v>
       </c>
       <c r="H4" s="14">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I4" s="14">
-        <v>1300.0</v>
+        <v>2500.0</v>
       </c>
       <c r="J4" s="14">
-        <v>1000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -1209,16 +1209,16 @@
         <v>3.0</v>
       </c>
       <c r="G5" s="14">
-        <v>1500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="H5" s="14">
-        <v>2500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I5" s="14">
-        <v>1500.0</v>
+        <v>3500.0</v>
       </c>
       <c r="J5" s="14">
-        <v>1200.0</v>
+        <v>2000.0</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -1245,16 +1245,16 @@
         <v>3.0</v>
       </c>
       <c r="G6" s="14">
-        <v>1800.0</v>
+        <v>2500.0</v>
       </c>
       <c r="H6" s="14">
-        <v>3000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I6" s="14">
-        <v>1600.0</v>
+        <v>4500.0</v>
       </c>
       <c r="J6" s="14">
-        <v>1500.0</v>
+        <v>2500.0</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -1281,16 +1281,16 @@
         <v>3.0</v>
       </c>
       <c r="G7" s="14">
-        <v>2200.0</v>
+        <v>3000.0</v>
       </c>
       <c r="H7" s="14">
-        <v>3500.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I7" s="14">
-        <v>2000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="J7" s="14">
-        <v>1800.0</v>
+        <v>3000.0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1307,14 +1307,14 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14">
-        <v>2400.0</v>
+        <v>4000.0</v>
       </c>
       <c r="H8" s="14">
         <v>4000.0</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="14">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1331,14 +1331,14 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14">
-        <v>2600.0</v>
+        <v>5000.0</v>
       </c>
       <c r="H9" s="14">
-        <v>4500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14">
-        <v>3000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1355,14 +1355,14 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14">
-        <v>2800.0</v>
+        <v>6000.0</v>
       </c>
       <c r="H10" s="14">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="14">
-        <v>4000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1379,14 +1379,14 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14">
-        <v>2900.0</v>
+        <v>7000.0</v>
       </c>
       <c r="H11" s="14">
-        <v>6000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="14">
-        <v>5000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1864,7 +1864,7 @@
         <v>3.0</v>
       </c>
       <c r="C6" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6" s="2">
         <v>5000.0</v>
@@ -1892,10 +1892,10 @@
         <v>4.0</v>
       </c>
       <c r="C8" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" s="2">
-        <v>9.9999999E7</v>
+        <v>9000.0</v>
       </c>
     </row>
     <row r="9">
@@ -1906,10 +1906,10 @@
         <v>4.0</v>
       </c>
       <c r="C9" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" s="2">
-        <v>0.0</v>
+        <v>11000.0</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         <v>5.0</v>
       </c>
       <c r="C10" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" s="2">
-        <v>0.0</v>
+        <v>9999999.0</v>
       </c>
     </row>
     <row r="11">
@@ -1934,7 +1934,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" s="2">
         <v>0.0</v>
@@ -1948,7 +1948,7 @@
         <v>5.0</v>
       </c>
       <c r="C12" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D12" s="2">
         <v>0.0</v>
